--- a/stimuli_tables/stimuli_demo.xlsx
+++ b/stimuli_tables/stimuli_demo.xlsx
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="30">
   <si>
-    <t xml:space="preserve">Task</t>
+    <t xml:space="preserve">TASK</t>
   </si>
   <si>
     <t xml:space="preserve">TrialType</t>
@@ -303,13 +303,13 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9:G9"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.86"/>
